--- a/Data/Percents.xlsx
+++ b/Data/Percents.xlsx
@@ -754,11 +754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159895040"/>
-        <c:axId val="128327680"/>
+        <c:axId val="191068672"/>
+        <c:axId val="131257408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159895040"/>
+        <c:axId val="191068672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128327680"/>
+        <c:crossAx val="131257408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -775,7 +775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128327680"/>
+        <c:axId val="131257408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -787,7 +787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159895040"/>
+        <c:crossAx val="191068672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -813,16 +813,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1407,7 +1407,7 @@
         <v>15</v>
       </c>
       <c r="N10">
-        <f>STDEV(B10:I10)</f>
+        <f t="shared" ref="N10:N15" si="0">STDEV(B10:I10)</f>
         <v>6.3487765975591142</v>
       </c>
       <c r="P10">
@@ -1447,7 +1447,7 @@
         <v>15</v>
       </c>
       <c r="N11">
-        <f>STDEV(B11:I11)</f>
+        <f t="shared" si="0"/>
         <v>3.8959456948400675</v>
       </c>
       <c r="P11">
@@ -1487,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="N12">
-        <f>STDEV(B12:I12)</f>
+        <f t="shared" si="0"/>
         <v>2.3537204591879641</v>
       </c>
       <c r="P12">
@@ -1527,7 +1527,7 @@
         <v>16</v>
       </c>
       <c r="N13">
-        <f>STDEV(B13:I13)</f>
+        <f t="shared" si="0"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="P13">
@@ -1567,7 +1567,7 @@
         <v>16</v>
       </c>
       <c r="N14">
-        <f>STDEV(B14:I14)</f>
+        <f t="shared" si="0"/>
         <v>0.97394631708910351</v>
       </c>
       <c r="P14">
@@ -1607,7 +1607,7 @@
         <v>17</v>
       </c>
       <c r="N15">
-        <f>STDEV(B15:I15)</f>
+        <f t="shared" si="0"/>
         <v>0.84006802445652329</v>
       </c>
       <c r="P15">

--- a/Data/Percents.xlsx
+++ b/Data/Percents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>White</t>
   </si>
@@ -63,15 +63,9 @@
     <t>Correlations</t>
   </si>
   <si>
-    <t>Good correlation</t>
-  </si>
-  <si>
     <t>Terrible Correlation</t>
   </si>
   <si>
-    <t>Pretty Bad Correlation</t>
-  </si>
-  <si>
     <t>Standard Deviations</t>
   </si>
   <si>
@@ -103,6 +97,36 @@
   </si>
   <si>
     <t>0 - 2.8</t>
+  </si>
+  <si>
+    <t>Heterosexual</t>
+  </si>
+  <si>
+    <t>Homosexual</t>
+  </si>
+  <si>
+    <t>Bisexual</t>
+  </si>
+  <si>
+    <t>Fair correlation</t>
+  </si>
+  <si>
+    <t>No Correlation</t>
+  </si>
+  <si>
+    <t>Fair Correlation</t>
+  </si>
+  <si>
+    <t>SDs</t>
+  </si>
+  <si>
+    <t>90.1 - 100</t>
+  </si>
+  <si>
+    <t>0 - 7</t>
+  </si>
+  <si>
+    <t>0 - 5</t>
   </si>
 </sst>
 </file>
@@ -754,11 +778,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="191068672"/>
-        <c:axId val="131257408"/>
+        <c:axId val="132440064"/>
+        <c:axId val="165600576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191068672"/>
+        <c:axId val="132440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131257408"/>
+        <c:crossAx val="165600576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -775,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131257408"/>
+        <c:axId val="165600576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -787,7 +811,387 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191068672"/>
+        <c:crossAx val="132440064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7056437464033573E-2"/>
+          <c:y val="3.6084071358596988E-2"/>
+          <c:w val="0.83056600277906434"/>
+          <c:h val="0.91898225916191201"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heterosexual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.2164795238787243E-2"/>
+                  <c:y val="0.31479554258879971"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1930s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1940s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1950s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Homosexual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.8018802001671604E-3"/>
+                  <c:y val="-0.49749047253254369"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1930s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1940s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1950s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bisexual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3784611614657055E-2"/>
+                  <c:y val="-0.45695925341400545"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1930s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1940s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1950s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="123111936"/>
+        <c:axId val="131580480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="123111936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131580480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131580480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123111936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -827,6 +1231,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1133,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,10 +1807,10 @@
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1404,10 +1843,10 @@
         <v>-0.7362745962125038</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N15" si="0">STDEV(B10:I10)</f>
+        <f>STDEV(B10:I10)</f>
         <v>6.3487765975591142</v>
       </c>
       <c r="P10">
@@ -1444,10 +1883,10 @@
         <v>0.76570076003748311</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N10:N15" si="0">STDEV(B11:I11)</f>
         <v>3.8959456948400675</v>
       </c>
       <c r="P11">
@@ -1484,7 +1923,7 @@
         <v>0.29238390339301179</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -1524,7 +1963,7 @@
         <v>0.24743582965269675</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -1564,7 +2003,7 @@
         <v>0.33533535333571246</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -1604,7 +2043,7 @@
         <v>0.59704948983329564</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -1616,10 +2055,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1648,10 +2087,10 @@
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1686,7 +2125,7 @@
         <v>85.4</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1721,7 +2160,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1756,7 +2195,7 @@
         <v>3.1</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1791,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1826,7 +2265,7 @@
         <v>1.3</v>
       </c>
       <c r="L26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1861,7 +2300,7 @@
         <v>1.4</v>
       </c>
       <c r="L27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1872,13 +2311,430 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>91.6</v>
+      </c>
+      <c r="C2">
+        <v>92.7</v>
+      </c>
+      <c r="D2">
+        <v>92.3</v>
+      </c>
+      <c r="E2">
+        <v>85.8</v>
+      </c>
+      <c r="F2">
+        <v>96.2</v>
+      </c>
+      <c r="G2">
+        <v>91.8</v>
+      </c>
+      <c r="H2">
+        <v>96.2</v>
+      </c>
+      <c r="I2">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2.8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>7.1</v>
+      </c>
+      <c r="F3">
+        <v>1.9</v>
+      </c>
+      <c r="G3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H3">
+        <v>1.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>5.6</v>
+      </c>
+      <c r="C4">
+        <v>7.3</v>
+      </c>
+      <c r="D4">
+        <v>7.7</v>
+      </c>
+      <c r="E4">
+        <v>7.1</v>
+      </c>
+      <c r="F4">
+        <v>1.9</v>
+      </c>
+      <c r="G4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H4">
+        <v>1.9</v>
+      </c>
+      <c r="I4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>91.6</v>
+      </c>
+      <c r="C11">
+        <v>92.7</v>
+      </c>
+      <c r="D11">
+        <v>92.3</v>
+      </c>
+      <c r="E11">
+        <v>85.8</v>
+      </c>
+      <c r="F11">
+        <v>96.2</v>
+      </c>
+      <c r="G11">
+        <v>91.8</v>
+      </c>
+      <c r="H11">
+        <v>96.2</v>
+      </c>
+      <c r="I11">
+        <v>96.6</v>
+      </c>
+      <c r="K11">
+        <f>CORREL(B10:I10, B11:I11)</f>
+        <v>0.50162595120573206</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <f>STDEV(B11:I11)</f>
+        <v>3.5693136595149508</v>
+      </c>
+      <c r="O11">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2.8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>7.1</v>
+      </c>
+      <c r="F12">
+        <v>1.9</v>
+      </c>
+      <c r="G12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H12">
+        <v>1.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>CORREL(B10:I10, B12:I12)</f>
+        <v>-3.5430709483322366E-2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12">
+        <f>STDEV(B12:I12)</f>
+        <v>2.4690946866065242</v>
+      </c>
+      <c r="O12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5.6</v>
+      </c>
+      <c r="C13">
+        <v>7.3</v>
+      </c>
+      <c r="D13">
+        <v>7.7</v>
+      </c>
+      <c r="E13">
+        <v>7.1</v>
+      </c>
+      <c r="F13">
+        <v>1.9</v>
+      </c>
+      <c r="G13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H13">
+        <v>1.9</v>
+      </c>
+      <c r="I13">
+        <v>3.4</v>
+      </c>
+      <c r="K13">
+        <f>CORREL(B10:I10, B13:I13)</f>
+        <v>-0.71406023123950091</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <f>STDEV(B13:I13)</f>
+        <v>2.38492287985527</v>
+      </c>
+      <c r="O13">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>91.6</v>
+      </c>
+      <c r="C20">
+        <v>92.7</v>
+      </c>
+      <c r="D20">
+        <v>92.3</v>
+      </c>
+      <c r="E20">
+        <v>85.8</v>
+      </c>
+      <c r="F20">
+        <v>96.2</v>
+      </c>
+      <c r="G20">
+        <v>91.8</v>
+      </c>
+      <c r="H20">
+        <v>96.2</v>
+      </c>
+      <c r="I20">
+        <v>96.6</v>
+      </c>
+      <c r="J20">
+        <v>96.2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>2.8</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>7.1</v>
+      </c>
+      <c r="F21">
+        <v>1.9</v>
+      </c>
+      <c r="G21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H21">
+        <v>1.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>5.6</v>
+      </c>
+      <c r="C22">
+        <v>7.3</v>
+      </c>
+      <c r="D22">
+        <v>7.7</v>
+      </c>
+      <c r="E22">
+        <v>7.1</v>
+      </c>
+      <c r="F22">
+        <v>1.9</v>
+      </c>
+      <c r="G22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H22">
+        <v>1.9</v>
+      </c>
+      <c r="I22">
+        <v>3.4</v>
+      </c>
+      <c r="J22">
+        <v>1.7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
